--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1378418.907526383</v>
+        <v>-1344555.749554304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10447914.7167612</v>
+        <v>10464010.11440336</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,10 +665,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>277.927931562605</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>41.66853746875934</v>
       </c>
       <c r="X2" t="n">
-        <v>194.4571453631283</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.13173951755325</v>
+        <v>9.623793390085215</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>210.7738621995429</v>
       </c>
       <c r="E5" t="n">
-        <v>165.6519372978137</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -953,13 +953,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>40.27761588654809</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,10 +1108,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>111.9053993396585</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>132.0919869802649</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>117.351968373877</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1768,19 +1768,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>28.8556017839858</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2011,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>35.34780583513918</v>
+        <v>35.34780583513694</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2245,16 +2245,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432362</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3329,7 +3329,7 @@
         <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477363</v>
       </c>
       <c r="Y35" t="n">
         <v>387.9675521245957</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E37" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934448</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925367</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413114</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496637</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385527</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545405</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561371</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242215</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724686</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925409</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169445</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.394369317406</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267645</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043298</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477351</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245958</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.66472219305</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591141</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.267442227782</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432415</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742931794</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>227.184941618582</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006785</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095266</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308241</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811744</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410.3847433709049</v>
+        <v>99.9151181629324</v>
       </c>
       <c r="C2" t="n">
-        <v>376.2826745947322</v>
+        <v>65.81304938675976</v>
       </c>
       <c r="D2" t="n">
-        <v>344.4132938095808</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>314.67895300828</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4328,7 +4328,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4343,10 +4343,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1033.105672808467</v>
+        <v>949.602871728472</v>
       </c>
       <c r="X2" t="n">
-        <v>836.6843138558127</v>
+        <v>530.4604083077827</v>
       </c>
       <c r="Y2" t="n">
-        <v>836.6843138558127</v>
+        <v>122.1742846074361</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4404,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>437.0247332457074</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.3913248050958</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="C4" t="n">
-        <v>421.8296132883207</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F4" t="n">
         <v>199.5349435757807</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4522,16 +4522,16 @@
         <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1013.629614209975</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.629614209975</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>786.209943524083</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>687.7796263806116</v>
+        <v>351.1922015055579</v>
       </c>
       <c r="C5" t="n">
-        <v>653.677557604439</v>
+        <v>317.0901327293853</v>
       </c>
       <c r="D5" t="n">
-        <v>225.0958833417073</v>
+        <v>104.1872416187359</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.45290081743511</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>562.6504997812827</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>562.6504997812827</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>562.6504997812827</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>562.6504997812827</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640694</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599288</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2447.641889536182</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2227.574662409221</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>1968.352359726238</v>
       </c>
       <c r="V5" t="n">
-        <v>1134.24202645431</v>
+        <v>1605.735409660064</v>
       </c>
       <c r="W5" t="n">
-        <v>1133.426975905747</v>
+        <v>1604.920359111502</v>
       </c>
       <c r="X5" t="n">
-        <v>1118.324916525462</v>
+        <v>1185.777895690812</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.0387928251154</v>
+        <v>777.4917719904657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583397</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.341159094982</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415353</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.130455568489</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846506</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083444</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.6895484275045</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.231555524841</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.4547363200022</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582.8258371575862</v>
+        <v>959.9260321296656</v>
       </c>
       <c r="C7" t="n">
-        <v>410.2641256408111</v>
+        <v>787.3643206128905</v>
       </c>
       <c r="D7" t="n">
-        <v>244.3861328423338</v>
+        <v>621.4863278144132</v>
       </c>
       <c r="E7" t="n">
-        <v>74.62812909307107</v>
+        <v>621.4863278144132</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923716</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>275.972293185371</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>694.182174953332</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1153.666042134245</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1595.92484529189</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2015.594094517671</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488013</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057717</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2350.634573355714</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2104.755126934169</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1991.719370025423</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.062614956869</v>
+        <v>1704.763861895853</v>
       </c>
       <c r="W7" t="n">
-        <v>1020.036210543161</v>
+        <v>1432.737457482145</v>
       </c>
       <c r="X7" t="n">
-        <v>774.6444558765734</v>
+        <v>1187.345702815557</v>
       </c>
       <c r="Y7" t="n">
-        <v>774.6444558765734</v>
+        <v>959.9260321296656</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W8" t="n">
-        <v>450.4214956153326</v>
+        <v>2232.100425464726</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>453.9965675465116</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>874.0494664914149</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1293.718715717196</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2073.029184285491</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1634.886711468914</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1198.976926643359</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.976926643359</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>771.1094970525667</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.7116656758305</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904675</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991046</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157282</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1349.769701157282</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1349.769701157282</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.403570027379</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.583236597686</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597686</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556281</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309338</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493175</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366213</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.29468368323</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3326.757341891435</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3326.757341891435</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2907.614878470746</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2499.328754770399</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741218</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066444</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728567</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728567</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728567</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728567</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728567</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O12" t="n">
-        <v>430.7867198728567</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>930.6607588231179</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0990473063429</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>592.2210545078656</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>422.4630507586029</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203591</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2678.585162606302</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2432.705716184757</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2154.272715437862</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1867.317207308293</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1595.290802894584</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1349.899048227997</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.479377542105</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5276,52 +5276,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>588.6280723679117</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5516,49 +5516,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1039.550377927473</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2114.610344180332</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3271.658179390883</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883955</v>
+        <v>811.7546776883933</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716205</v>
+        <v>639.1929661716182</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731432</v>
+        <v>473.3149733731409</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238804</v>
+        <v>303.5569696238782</v>
       </c>
       <c r="F19" t="n">
         <v>267.852115244952</v>
@@ -5677,46 +5677,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745701</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309249</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050035</v>
+        <v>2313.799635050033</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.36663430314</v>
+        <v>2035.366634303138</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.41112617357</v>
+        <v>1748.411126173568</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759862</v>
+        <v>1476.38472175986</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093275</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407383</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2670.825451691258</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,22 +5999,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
         <v>4809.322912595856</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6236,40 +6236,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6643,7 +6643,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,19 +6710,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832277</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6871,13 +6871,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
@@ -6944,37 +6944,37 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832299</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X35" t="n">
         <v>3227.177156566212</v>
@@ -7075,19 +7075,19 @@
         <v>905.6649082936672</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581786</v>
@@ -7111,25 +7111,25 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
         <v>1677.257834230404</v>
@@ -7151,25 +7151,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7196,28 +7196,28 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7312,22 +7312,22 @@
         <v>905.6649082936676</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080664</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7357,19 +7357,19 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7391,22 +7391,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7418,31 +7418,31 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2523.346856428596</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3503.526522998903</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4331.836397832299</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
@@ -7597,16 +7597,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197256</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7670,16 +7670,16 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
@@ -7688,7 +7688,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.664908293668</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080667</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.82832657168</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463123</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758675</v>
       </c>
       <c r="K46" t="n">
         <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.3347848856837</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N46" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P46" t="n">
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579746</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290619</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.47362528195</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947932</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231238</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>77.54539097102821</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619435</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>972.3574433031283</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,7 +8766,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158829</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,22 +9164,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>507.1059092967429</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,7 +10592,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>16.87101652259721</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>359.1383625743177</v>
       </c>
       <c r="X2" t="n">
-        <v>220.4938934233541</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.6388121916348</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-2.376881533027373e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.5921776627222</v>
+        <v>139.5921776627244</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>826400.0932185764</v>
+        <v>687752.0647281947</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>901900.1277986696</v>
+        <v>912592.7482426636</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>901900.1277986696</v>
+        <v>914371.629856337</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773808.1312407948</v>
+        <v>923337.9401217478</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923337.9401217476</v>
+        <v>923337.9401217478</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923337.9401217479</v>
+        <v>923337.9401217478</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938433.7607204641</v>
+        <v>938433.7607204639</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936122.0169862482</v>
+        <v>936122.0169862481</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61210.72001860157</v>
+        <v>50545.48705780299</v>
       </c>
       <c r="C2" t="n">
         <v>67018.41498630105</v>
@@ -26320,40 +26320,40 @@
         <v>67018.41498630105</v>
       </c>
       <c r="E2" t="n">
-        <v>55191.96505637044</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="F2" t="n">
+        <v>65857.19801716901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65857.19801716904</v>
+      </c>
+      <c r="H2" t="n">
         <v>65857.19801716902</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65857.19801716902</v>
-      </c>
-      <c r="H2" t="n">
-        <v>65857.19801716904</v>
       </c>
       <c r="I2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="J2" t="n">
-        <v>65857.19801716902</v>
+        <v>65857.19801716901</v>
       </c>
       <c r="K2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="L2" t="n">
-        <v>67018.41498630105</v>
+        <v>67018.41498630108</v>
       </c>
       <c r="M2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630104</v>
       </c>
       <c r="N2" t="n">
         <v>67018.41498630107</v>
       </c>
       <c r="O2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630108</v>
       </c>
       <c r="P2" t="n">
-        <v>67018.41498630108</v>
+        <v>67018.4149863011</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246258</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106387</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725242</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471869</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338237</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143493</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978834</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.2002734119</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664686</v>
+        <v>124611.1870481615</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436014</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.336534075</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="J4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68000.69828933277</v>
-      </c>
       <c r="L4" t="n">
-        <v>73343.05610596602</v>
+        <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
+        <v>81349.24995213674</v>
+      </c>
+      <c r="N4" t="n">
         <v>81349.24995213679</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81349.24995213677</v>
       </c>
       <c r="O4" t="n">
         <v>81349.24995213679</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.24995213676</v>
+        <v>81349.24995213668</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295563</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710193</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="O5" t="n">
+        <v>75515.61472608973</v>
+      </c>
+      <c r="P5" t="n">
         <v>75515.61472608971</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75515.6147260897</v>
-      </c>
-      <c r="P5" t="n">
-        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313715.4664447993</v>
+        <v>-276011.2473458607</v>
       </c>
       <c r="C6" t="n">
-        <v>-192235.1993974369</v>
+        <v>-235251.3890527186</v>
       </c>
       <c r="D6" t="n">
-        <v>-192235.1993974369</v>
+        <v>-174607.0540291943</v>
       </c>
       <c r="E6" t="n">
-        <v>-235228.9300773306</v>
+        <v>-262240.0724383887</v>
       </c>
       <c r="F6" t="n">
-        <v>-159000.644582675</v>
+        <v>-79884.96321733893</v>
       </c>
       <c r="G6" t="n">
-        <v>-79861.73887795629</v>
+        <v>-79884.9632173389</v>
       </c>
       <c r="H6" t="n">
-        <v>-79861.73887795628</v>
+        <v>-79884.96321733893</v>
       </c>
       <c r="I6" t="n">
-        <v>-79861.73887795629</v>
+        <v>-79884.96321733894</v>
       </c>
       <c r="J6" t="n">
-        <v>-190876.2042229465</v>
+        <v>-190899.4285623291</v>
       </c>
       <c r="K6" t="n">
-        <v>-79861.73887795626</v>
+        <v>-133553.2902807213</v>
       </c>
       <c r="L6" t="n">
-        <v>-98396.36792892353</v>
+        <v>-107176.5416193606</v>
       </c>
       <c r="M6" t="n">
-        <v>-219204.8710898088</v>
+        <v>-227424.1504297774</v>
       </c>
       <c r="N6" t="n">
-        <v>-157495.6499653373</v>
+        <v>-89846.44969192545</v>
       </c>
       <c r="O6" t="n">
-        <v>-89846.4496919254</v>
+        <v>-89846.44969192543</v>
       </c>
       <c r="P6" t="n">
-        <v>-89846.44969192537</v>
+        <v>-89846.44969192523</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827334</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179819</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977068</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072301</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179819</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977068</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702082</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574106</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179819</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977068</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072301</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574108</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>145.6608237322794</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>200.9955383330945</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0874733529393</v>
+        <v>154.5954194804073</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>220.776824777757</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7850600954741</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6623676113132</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>163.7432713997672</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>226.8987935852468</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874612</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874739</v>
       </c>
     </row>
     <row r="38">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874769</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874727</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,34 +34772,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>384.4104887602591</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>77.54539097102821</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619435</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6484237362511</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>972.3574433031283</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158829</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132075</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,22 +35884,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>507.1059092967429</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080456</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165088</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>81.9345526149732</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497093</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778278</v>
+        <v>103.6899377778279</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348438</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
